--- a/1.13.ss处理.xlsx
+++ b/1.13.ss处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workroom\send_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AAA0A9B-73D5-45D6-A808-FEF88B65688F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD1308E-2F4D-45F3-9060-40B49EC727C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22710" windowHeight="12740" xr2:uid="{53313E68-E5AD-460B-959C-F647605C567E}"/>
   </bookViews>
@@ -3717,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C36A9E-4847-4142-A6CC-85137BB32D0B}">
   <dimension ref="A1:E1145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1116" workbookViewId="0">
-      <selection activeCell="A1121" sqref="A1121:XFD1145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
